--- a/ProgramQuick.xlsx
+++ b/ProgramQuick.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Venkatesan\Stash\CSharphNamespaces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D0163E-3B5E-4FA7-A3E5-12B169C3CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410CA75D-1B59-42BA-8B7D-3215E494CB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{43056407-5C18-4057-B4EF-AD677CE429F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>URL</t>
   </si>
@@ -64,6 +65,58 @@
 ans = 2 (if you choose 4 and 3 coins you will get target as 7.)
 if target = 21,
 ans = 0</t>
+  </si>
+  <si>
+    <t>You have a choice to pick the current item or not.
+If you pick ind I, you need target-arr[i] from i+1 elements.</t>
+  </si>
+  <si>
+    <t>Intution</t>
+  </si>
+  <si>
+    <t>Dynamic programming</t>
+  </si>
+  <si>
+    <t>Cadanes algorithem</t>
+  </si>
+  <si>
+    <t>concise</t>
+  </si>
+  <si>
+    <t>meet the man in the middle</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>moving windows</t>
+  </si>
+  <si>
+    <t>2 pointer</t>
+  </si>
+  <si>
+    <t>3 pointer</t>
+  </si>
+  <si>
+    <t>Cherry pick</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cherry-pickup/</t>
+  </si>
+  <si>
+    <t>we ned to start from (0,0) and end in (n-1, n-1)
+then again, we need to start from (n-1,n-1) and reach (0,0)
+we need to get maximum profilt.
+To simplify the problem, we can think like 2 path from (0,0) to (n-1.n-1) to get maximum profit.
+As we are only allowed to move, right or down,
+at any point, r1+c1 wil be equal to no of step the person took
+also, r1+c1 == r2+c2
+it is dp of 3 dimension. dp[r1, c1, c2] where r2 = r1+c1-c2
+we have following choice to make
+r1+1, c1, c2
+r1, c1+1, c2
+r1+1, c1, c2+1
+r1, c1+1, c2+1</t>
   </si>
 </sst>
 </file>
@@ -425,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3530FEF-1B67-48CE-BF27-43BA87C83A39}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -436,7 +489,7 @@
     <col min="1" max="1" width="19.20703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.89453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="5" max="5" width="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -466,6 +519,83 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="259.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F402E685-906F-46D9-B055-1893A4CD9945}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="32.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
